--- a/talks/2023-11-23-zuehlke-architecture-day.xlsx
+++ b/talks/2023-11-23-zuehlke-architecture-day.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cha/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cha/Documents/environmental-impact-estimator/talks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C8A082-C30B-B644-AE77-D2E1D76CF3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2DAB7D-0E05-2644-9E90-86EA9C364DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16700" xr2:uid="{A9D3E164-25C9-7E45-B09B-F9A6DC7679E4}"/>
+    <workbookView xWindow="30780" yWindow="3420" windowWidth="27640" windowHeight="16700" activeTab="4" xr2:uid="{A9D3E164-25C9-7E45-B09B-F9A6DC7679E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline_Chart" sheetId="2" r:id="rId1"/>
     <sheet name="Decorated_Chart" sheetId="3" r:id="rId2"/>
     <sheet name="Baseline" sheetId="1" r:id="rId3"/>
     <sheet name="Decorated" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="344">
   <si>
     <t>baseline</t>
   </si>
@@ -1020,6 +1024,57 @@
   </si>
   <si>
     <t>((125W * 251d/y * 8y * 1h) / 1000 ) *  9000 [users] * 19gC02eq per kWh</t>
+  </si>
+  <si>
+    <t>TVs (production)</t>
+  </si>
+  <si>
+    <t>Data centres (use)</t>
+  </si>
+  <si>
+    <t>Networks (use)</t>
+  </si>
+  <si>
+    <t>Terminals (use)</t>
+  </si>
+  <si>
+    <t>Smartphones (production)</t>
+  </si>
+  <si>
+    <t>Others (production)</t>
+  </si>
+  <si>
+    <t>Computers (production)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Networks </t>
+  </si>
+  <si>
+    <t>Terminals (production)</t>
+  </si>
+  <si>
+    <t>Machines (production + use)</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Machines</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -1936,6 +1991,1878 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Distribution of energy consumption per source for the produciton and use of digital services in</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 2017 (Shift Proj.)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>TVs (production)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Data centres (use)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Networks (use)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Terminals (use)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Smartphones (production)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Others (production)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Computers (production)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22D4-B848-AB02-3F8F4A9D8E04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Carbon emission in example project</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BADB-7F47-BF6C-413A23A561B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-BADB-7F47-BF6C-413A23A561B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BADB-7F47-BF6C-413A23A561B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.677523773255228E-2"/>
+                  <c:y val="9.7553567999122057E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BADB-7F47-BF6C-413A23A561B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.6465653386498805E-2"/>
+                  <c:y val="0.20981288924250321"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-BADB-7F47-BF6C-413A23A561B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Machines (production + use)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Networks </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Terminals (production)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Terminals (use)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.3194709949298629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57952854579394919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.945133618777241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.155866840498952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BADB-7F47-BF6C-413A23A561B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Distribution of energy consumption of digital services per phase in 2017 (Shift Project)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Production</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Use</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E39-BD4C-8CFA-10D487F73EA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Distribution of carbon emissions per phase in example project (excluding team)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$6:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Production</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Use</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>32.894290243606349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.105709756393651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46A0-DF4E-8445-F9706C0F8EB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$1:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Team</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Machines</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Usage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7E9-8A4D-8B66-D618A5A107F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2016,6 +3943,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -3022,6 +5149,3011 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3088,6 +8220,201 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7F4458B-3CEF-5BA2-2CF9-D665FD420494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549C3A83-40B2-7EE7-4982-FF55C8EB0366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC67532-3A95-F745-F0F7-91397B256C69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38062157-1907-C9F3-36BF-E8E293D8386A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C80A4A-7484-AA62-C5D3-0A65743C941F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B60047-66AB-1650-0231-9C4CD0984225}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3407,7 +8734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FFA99A-0751-D64A-8EE1-13F2EC77C297}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -3797,13 +9124,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6987DA-1206-7B40-B76A-6026DE416D85}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" customWidth="1"/>
+    <col min="1" max="1" width="85.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5120,7 +10447,7 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6435,4 +11762,280 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB0C807-E391-7C48-AEEB-189203D643D5}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <f>Decorated!B1</f>
+        <v>333236501</v>
+      </c>
+      <c r="B1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1">
+        <f>A1/(A2/100)</f>
+        <v>38.043044707207088</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>Baseline!B1</f>
+        <v>875945928</v>
+      </c>
+      <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192353C7-4A1A-3C43-8459-D53B9C316439}">
+  <dimension ref="A2:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13">
+        <f>100/SUM($C$13:$C$16)*C13</f>
+        <v>4.3194709949298629</v>
+      </c>
+      <c r="C13">
+        <f>Baseline!B29</f>
+        <v>34752148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B16" si="0">100/SUM($C$13:$C$16)*C14</f>
+        <v>0.57952854579394919</v>
+      </c>
+      <c r="C14">
+        <f>Baseline!B96</f>
+        <v>4662576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>38.945133618777241</v>
+      </c>
+      <c r="C15">
+        <f>Baseline!B95</f>
+        <v>313331667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>56.155866840498952</v>
+      </c>
+      <c r="C16">
+        <f>Baseline!B97</f>
+        <v>451800000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D05348-289D-3747-8CB3-5D54D7254736}">
+  <dimension ref="A2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2">
+        <f>11+11+6+17</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6">
+        <f>100/SUM($C$6:$C$7)*C6</f>
+        <v>32.894290243606349</v>
+      </c>
+      <c r="C6">
+        <f>Decorated!B37+Decorated!B45+Decorated!B53+Decorated!B61+Decorated!B77+Decorated!B85+Decorated!B93+Decorated!B95</f>
+        <v>264649825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7">
+        <f>100/SUM($C$6:$C$7)*C7</f>
+        <v>67.105709756393651</v>
+      </c>
+      <c r="C7">
+        <f>Baseline!B29+Baseline!B94-Sheet2!C6</f>
+        <v>539896566</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D20470A-6E8C-0F4C-A872-1073E595EFE5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="2">
+        <f>Baseline!C2</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="2">
+        <f>Baseline!C29</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" s="2">
+        <f>Baseline!C94</f>
+        <v>0.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/talks/2023-11-23-zuehlke-architecture-day.xlsx
+++ b/talks/2023-11-23-zuehlke-architecture-day.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cha/Documents/environmental-impact-estimator/talks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2DAB7D-0E05-2644-9E90-86EA9C364DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FBC342-816B-0843-9E54-85B34E7C75B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="3420" windowWidth="27640" windowHeight="16700" activeTab="4" xr2:uid="{A9D3E164-25C9-7E45-B09B-F9A6DC7679E4}"/>
+    <workbookView xWindow="10960" yWindow="5700" windowWidth="30240" windowHeight="17200" activeTab="7" xr2:uid="{A9D3E164-25C9-7E45-B09B-F9A6DC7679E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline_Chart" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="344">
   <si>
     <t>baseline</t>
   </si>
@@ -2091,6 +2091,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CE10-244B-B0F0-0B2972C0F34B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2110,6 +2115,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CE10-244B-B0F0-0B2972C0F34B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2129,6 +2139,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CE10-244B-B0F0-0B2972C0F34B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2148,6 +2163,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-CE10-244B-B0F0-0B2972C0F34B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2167,6 +2187,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-CE10-244B-B0F0-0B2972C0F34B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2186,6 +2211,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-CE10-244B-B0F0-0B2972C0F34B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2207,6 +2237,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-CE10-244B-B0F0-0B2972C0F34B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2624,6 +2659,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EF7D-214C-B9F9-C88FCC4B042E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -2991,6 +3031,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BFA9-5C43-8AE1-586907002B5C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3010,6 +3055,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BFA9-5C43-8AE1-586907002B5C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3321,6 +3371,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1F74-584F-AB79-F1FFC87F1C1E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3340,6 +3395,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1F74-584F-AB79-F1FFC87F1C1E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3557,6 +3617,328 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FE20-EA4E-9CD8-8F097A5C6A02}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FE20-EA4E-9CD8-8F097A5C6A02}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FE20-EA4E-9CD8-8F097A5C6A02}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$1:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Team</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Machines</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Usage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7E9-8A4D-8B66-D618A5A107F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3708,7 +4090,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$1:$A$3</c:f>
+              <c:f>Sheet3!$A$8:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3725,25 +4107,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$B$3</c:f>
+              <c:f>Sheet3!$B$8:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.08</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D7E9-8A4D-8B66-D618A5A107F2}"/>
+              <c16:uniqueId val="{00000000-250A-5741-B44B-31BEB6B2371F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4143,6 +4525,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -7558,6 +7980,607 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8432,6 +9455,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7091263F-90ED-94D8-D1F1-D39A03758381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10446,7 +11505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC177C3-5473-A448-ABA2-AB29040AE1AC}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -11768,7 +12827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB0C807-E391-7C48-AEEB-189203D643D5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -11999,10 +13058,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D20470A-6E8C-0F4C-A872-1073E595EFE5}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12034,6 +13093,33 @@
         <v>0.88</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="2">
+        <f>Decorated!C2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="2">
+        <f>Decorated!C29</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" s="2">
+        <f>Decorated!C94</f>
+        <v>0.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/talks/2023-11-23-zuehlke-architecture-day.xlsx
+++ b/talks/2023-11-23-zuehlke-architecture-day.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cha/Documents/environmental-impact-estimator/talks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FBC342-816B-0843-9E54-85B34E7C75B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C55D26-0CF9-B841-86C3-3448CCA68903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10960" yWindow="5700" windowWidth="30240" windowHeight="17200" activeTab="7" xr2:uid="{A9D3E164-25C9-7E45-B09B-F9A6DC7679E4}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="30240" windowHeight="17200" activeTab="4" xr2:uid="{A9D3E164-25C9-7E45-B09B-F9A6DC7679E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline_Chart" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="346">
   <si>
     <t>baseline</t>
   </si>
@@ -1075,6 +1075,12 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>Dev &amp; Ops</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -1457,6 +1463,218 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$F$5:$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Production</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Use</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$5:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03E2-154D-8D91-DB1CB01589B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3978,6 +4196,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1E7F-4E4F-9CF8-654D0F66D5FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3997,6 +4220,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1E7F-4E4F-9CF8-654D0F66D5FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4016,6 +4244,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1E7F-4E4F-9CF8-654D0F66D5FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4245,7 +4478,239 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F9FA-1148-AE42-3389711DA6B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F9FA-1148-AE42-3389711DA6B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Dev &amp; Ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>User</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$1:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8397-A94A-9DE8-E638F51D2EBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4565,6 +5030,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -4728,6 +5233,525 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -9177,6 +10201,525 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -9347,13 +10890,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9491,13 +11034,85 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A63915-3BB3-AF8D-4A5D-5EC3FE7EA85B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A6F39E-78FD-D14D-7264-2AD4818C5C64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9535,7 +11150,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9641,7 +11256,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9783,7 +11398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9930,7 +11545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10183,8 +11798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6987DA-1206-7B40-B76A-6026DE416D85}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12827,7 +14442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB0C807-E391-7C48-AEEB-189203D643D5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -12871,7 +14486,7 @@
   <dimension ref="A2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+      <selection activeCell="E3" sqref="E3:Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12999,7 +14614,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13058,15 +14673,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D20470A-6E8C-0F4C-A872-1073E595EFE5}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>339</v>
       </c>
@@ -13074,8 +14689,18 @@
         <f>Baseline!C2</f>
         <v>0.08</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <f>Baseline!B2</f>
+        <v>71399538</v>
+      </c>
+      <c r="F1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>340</v>
       </c>
@@ -13083,8 +14708,18 @@
         <f>Baseline!C29</f>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <f>Baseline!B29</f>
+        <v>34752148</v>
+      </c>
+      <c r="F2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>341</v>
       </c>
@@ -13092,8 +14727,28 @@
         <f>Baseline!C94</f>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f>Baseline!B94</f>
+        <v>769794243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>339</v>
       </c>
@@ -13102,7 +14757,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>340</v>
       </c>
@@ -13111,7 +14766,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>341</v>
       </c>
